--- a/docs/CareConnect-MedicationStatement-1.xlsx
+++ b/docs/CareConnect-MedicationStatement-1.xlsx
@@ -149,21 +149,10 @@
     <t>Record of medication being taken by a patient</t>
   </si>
   <si>
-    <t>A record of a medication that is being consumed by a patient.   A MedicationStatement may indicate that the patient may be taking the medication now, or has taken the medication in the past or will be taking the medication in the future.  The source of this information can be the patient, significant other (such as a family member or spouse), or a clinician.  A common scenario where this information is captured is during the history taking process during a patient visit or stay.   The medication information may come from sources such as the patient's memory, from a prescription bottle,  or from a list of medications the patient, clinician or other party maintains --The primary difference between a medication statement and a medication administration is that the medication administration has complete administration information and is based on actual administration information from the person who administered the medication.  A medication statement is often, if not always, less specific.  There is no required date/time when the medication was administered, in fact we only know that a source has reported the patient is taking this medication, where details such as time, quantity, or rate or even medication product may be incomplete or missing or less precise.  As stated earlier, the medication statement information may come from the patient's memory, from a prescription bottle or from a list of medications the patient, clinician or other party maintains.  Medication administration is more formal and is not missing detailed information.</t>
-  </si>
-  <si>
-    <t>When interpreting a medicationStatement, the value of the status and NotTaken needed to be considered:-MedicationStatement.status + MedicationStatement.wasNotTaken-Status=Active + NotTaken=T = Not currently taking-Status=Completed + NotTaken=T = Not taken in the past-Status=Intended + NotTaken=T = No intention of taking-Status=Active + NotTaken=F = Taking, but not as prescribed-Status=Active + NotTaken=F = Taking-Status=Intended +NotTaken= F = Will be taking (not started)-Status=Completed + NotTaken=F = Taken in past-Status=In Error + NotTaken=N/A = In Error.</t>
+    <t>A record of a medication that is being consumed by a patient.   A MedicationStatement may indicate that the patient may be taking the medication now, or has taken the medication in the past or will be taking the medication in the future.  The source of this information can be the patient, significant other (such as a family member or spouse), or a clinician.  A common scenario where this information is captured is during the history taking process during a patient visit or stay.   The medication information may come from sources such as the patient's memory, from a prescription bottle,  or from a list of medications the patient, clinician or other party maintains   The primary difference between a medication statement and a medication administration is that the medication administration has complete administration information and is based on actual administration information from the person who administered the medication.  A medication statement is often, if not always, less specific.  There is no required date/time when the medication was administered, in fact we only know that a source has reported the patient is taking this medication, where details such as time, quantity, or rate or even medication product may be incomplete or missing or less precise.  As stated earlier, the medication statement information may come from the patient's memory, from a prescription bottle or from a list of medications the patient, clinician or other party maintains.  Medication administration is more formal and is not missing detailed information.</t>
+  </si>
+  <si>
+    <t>When interpreting a medicationStatement, the value of the status and NotTaken needed to be considered: MedicationStatement.status + MedicationStatement.wasNotTaken Status=Active + NotTaken=T = Not currently taking Status=Completed + NotTaken=T = Not taken in the past Status=Intended + NotTaken=T = No intention of taking Status=Active + NotTaken=F = Taking, but not as prescribed Status=Active + NotTaken=F = Taking Status=Intended +NotTaken= F = Will be taking (not started) Status=Completed + NotTaken=F = Taken in past Status=In Error + NotTaken=N/A = In Error.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -233,8 +222,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -350,7 +338,7 @@
     <t>lastIssueDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MedicationStatementLastIssueDate-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-MedicationStatementLastIssueDate-1}
 </t>
   </si>
   <si>
@@ -371,7 +359,7 @@
     <t>changeSummary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-MedicationChangeSummary-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-MedicationChangeSummary-1}
 </t>
   </si>
   <si>
@@ -499,8 +487,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -591,7 +578,7 @@
     <t>MedicationStatement.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -616,7 +603,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ProcedureRequest|ReferralRequest|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1)
+    <t xml:space="preserve">Reference(CarePlan|ProcedureRequest|ReferralRequest|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-MedicationRequest-1)
 </t>
   </si>
   <si>
@@ -638,7 +625,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Procedure-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationStatement-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationDispense-1)
+    <t xml:space="preserve">Reference(MedicationAdministration|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Procedure-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Observation-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-MedicationStatement-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-MedicationDispense-1)
 </t>
   </si>
   <si>
@@ -660,7 +647,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(EpisodeOfCare|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -685,8 +672,7 @@
     <t>A code representing the patient or other source's judgment about the state of the medication used that this statement is about.  Generally this will be active or completed.</t>
   </si>
   <si>
-    <t>MedicationStatement is a statement at a point in time.  The status is only representative at the point when it was asserted.  The value set for MedicationStatement.status contains codes that assert the status of the use of the medication by the patient (for example, stopped or on hold) as well as codes that assert the status of the medication statement itself (for example, entered in error).
-This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>MedicationStatement is a statement at a point in time.  The status is only representative at the point when it was asserted.  The value set for MedicationStatement.status contains codes that assert the status of the use of the medication by the patient (for example, stopped or on hold) as well as codes that assert the status of the medication statement itself (for example, entered in error).  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>A coded concept indicating the current status of a MedicationStatement.</t>
@@ -763,7 +749,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Medication-1)
 </t>
   </si>
   <si>
@@ -814,7 +800,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -833,7 +819,7 @@
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(Group|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -953,7 +939,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Observation-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Condition-1)
 </t>
   </si>
   <si>
@@ -1000,7 +986,7 @@
     <t>MedicationStatement.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t>Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 string</t>
   </si>
   <si>
@@ -1286,7 +1272,7 @@
     <t>A code from the SNOMED Clinical Terminology UK coding system that describes the e-Prescribing route of administration.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-MedicationDosageRoute-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-MedicationDosageRoute-1</t>
   </si>
   <si>
     <t>MedicationStatement.dosage.route.coding.id</t>
@@ -1298,7 +1284,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -1768,7 +1754,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.55859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
